--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Igf1-Igf1r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.282564</v>
+        <v>9.447974666666667</v>
       </c>
       <c r="H2">
-        <v>15.847692</v>
+        <v>28.343924</v>
       </c>
       <c r="I2">
-        <v>0.0387402844696342</v>
+        <v>0.06074879557565148</v>
       </c>
       <c r="J2">
-        <v>0.03912622518379642</v>
+        <v>0.06110214141073961</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N2">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O2">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P2">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q2">
-        <v>67.66869750018932</v>
+        <v>75.78514942010446</v>
       </c>
       <c r="R2">
-        <v>609.0182775017039</v>
+        <v>682.0663447809401</v>
       </c>
       <c r="S2">
-        <v>0.01167695537182485</v>
+        <v>0.01408423046887916</v>
       </c>
       <c r="T2">
-        <v>0.01291637176302519</v>
+        <v>0.01573516690727064</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.282564</v>
+        <v>9.447974666666667</v>
       </c>
       <c r="H3">
-        <v>15.847692</v>
+        <v>28.343924</v>
       </c>
       <c r="I3">
-        <v>0.0387402844696342</v>
+        <v>0.06074879557565148</v>
       </c>
       <c r="J3">
-        <v>0.03912622518379642</v>
+        <v>0.06110214141073961</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>35.103086</v>
       </c>
       <c r="O3">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P3">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q3">
-        <v>61.81143279750133</v>
+        <v>110.5510224166071</v>
       </c>
       <c r="R3">
-        <v>556.3028951775119</v>
+        <v>994.959201749464</v>
       </c>
       <c r="S3">
-        <v>0.01066622188557648</v>
+        <v>0.02054526632460091</v>
       </c>
       <c r="T3">
-        <v>0.01179835691703009</v>
+        <v>0.02295355756115012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.282564</v>
+        <v>9.447974666666667</v>
       </c>
       <c r="H4">
-        <v>15.847692</v>
+        <v>28.343924</v>
       </c>
       <c r="I4">
-        <v>0.0387402844696342</v>
+        <v>0.06074879557565148</v>
       </c>
       <c r="J4">
-        <v>0.03912622518379642</v>
+        <v>0.06110214141073961</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N4">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O4">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P4">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q4">
-        <v>13.24511710728267</v>
+        <v>23.39276956378134</v>
       </c>
       <c r="R4">
-        <v>119.206053965544</v>
+        <v>210.534926074032</v>
       </c>
       <c r="S4">
-        <v>0.002285586202629374</v>
+        <v>0.00434741054629729</v>
       </c>
       <c r="T4">
-        <v>0.002528183087933517</v>
+        <v>0.004857008745459732</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.282564</v>
+        <v>9.447974666666667</v>
       </c>
       <c r="H5">
-        <v>15.847692</v>
+        <v>28.343924</v>
       </c>
       <c r="I5">
-        <v>0.0387402844696342</v>
+        <v>0.06074879557565148</v>
       </c>
       <c r="J5">
-        <v>0.03912622518379642</v>
+        <v>0.06110214141073961</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N5">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O5">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P5">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q5">
-        <v>58.56192342196</v>
+        <v>97.78354279203066</v>
       </c>
       <c r="R5">
-        <v>351.3715405317599</v>
+        <v>586.701256752184</v>
       </c>
       <c r="S5">
-        <v>0.01010548439009836</v>
+        <v>0.01817250428724653</v>
       </c>
       <c r="T5">
-        <v>0.00745206771637882</v>
+        <v>0.01353510882092571</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.282564</v>
+        <v>9.447974666666667</v>
       </c>
       <c r="H6">
-        <v>15.847692</v>
+        <v>28.343924</v>
       </c>
       <c r="I6">
-        <v>0.0387402844696342</v>
+        <v>0.06074879557565148</v>
       </c>
       <c r="J6">
-        <v>0.03912622518379642</v>
+        <v>0.06110214141073961</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N6">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O6">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P6">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q6">
-        <v>23.215236467724</v>
+        <v>19.36774969493778</v>
       </c>
       <c r="R6">
-        <v>208.937128209516</v>
+        <v>174.30974725444</v>
       </c>
       <c r="S6">
-        <v>0.004006036619505134</v>
+        <v>0.003599383948627593</v>
       </c>
       <c r="T6">
-        <v>0.004431245699428809</v>
+        <v>0.004021299375933406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>216.692474</v>
       </c>
       <c r="I7">
-        <v>0.5297129755669666</v>
+        <v>0.4644313471136943</v>
       </c>
       <c r="J7">
-        <v>0.53499011296774</v>
+        <v>0.4671327156039162</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N7">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O7">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P7">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q7">
-        <v>925.263910585443</v>
+        <v>579.3859565916878</v>
       </c>
       <c r="R7">
-        <v>8327.375195268987</v>
+        <v>5214.47360932519</v>
       </c>
       <c r="S7">
-        <v>0.1596641547746079</v>
+        <v>0.1076755196171005</v>
       </c>
       <c r="T7">
-        <v>0.1766112410837912</v>
+        <v>0.1202971136226375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>216.692474</v>
       </c>
       <c r="I8">
-        <v>0.5297129755669666</v>
+        <v>0.4644313471136943</v>
       </c>
       <c r="J8">
-        <v>0.53499011296774</v>
+        <v>0.4671327156039162</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.103086</v>
       </c>
       <c r="O8">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P8">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q8">
         <v>845.1749500416404</v>
@@ -948,10 +948,10 @@
         <v>7606.574550374764</v>
       </c>
       <c r="S8">
-        <v>0.1458439505650736</v>
+        <v>0.1570708624842015</v>
       </c>
       <c r="T8">
-        <v>0.1613241315824577</v>
+        <v>0.1754825187587656</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>216.692474</v>
       </c>
       <c r="I9">
-        <v>0.5297129755669666</v>
+        <v>0.4644313471136943</v>
       </c>
       <c r="J9">
-        <v>0.53499011296774</v>
+        <v>0.4671327156039162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N9">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O9">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P9">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q9">
-        <v>181.1063209959409</v>
+        <v>178.8403437183813</v>
       </c>
       <c r="R9">
-        <v>1629.956888963468</v>
+        <v>1609.563093465432</v>
       </c>
       <c r="S9">
-        <v>0.03125182700345415</v>
+        <v>0.03323644061319284</v>
       </c>
       <c r="T9">
-        <v>0.03456896108589651</v>
+        <v>0.03713237592978677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>216.692474</v>
       </c>
       <c r="I10">
-        <v>0.5297129755669666</v>
+        <v>0.4644313471136943</v>
       </c>
       <c r="J10">
-        <v>0.53499011296774</v>
+        <v>0.4671327156039162</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N10">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O10">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P10">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q10">
-        <v>800.7429768639532</v>
+        <v>747.5661381285805</v>
       </c>
       <c r="R10">
-        <v>4804.45786118372</v>
+        <v>4485.396828771483</v>
       </c>
       <c r="S10">
-        <v>0.1381767397712421</v>
+        <v>0.1389308309173795</v>
       </c>
       <c r="T10">
-        <v>0.10189540469853</v>
+        <v>0.1034774231071751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>216.692474</v>
       </c>
       <c r="I11">
-        <v>0.5297129755669666</v>
+        <v>0.4644313471136943</v>
       </c>
       <c r="J11">
-        <v>0.53499011296774</v>
+        <v>0.4671327156039162</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N11">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O11">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P11">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q11">
-        <v>317.4321550851781</v>
+        <v>148.0686159477711</v>
       </c>
       <c r="R11">
-        <v>2856.889395766602</v>
+        <v>1332.61754352994</v>
       </c>
       <c r="S11">
-        <v>0.05477630345258881</v>
+        <v>0.02751769348182001</v>
       </c>
       <c r="T11">
-        <v>0.06059037451706462</v>
+        <v>0.03074328418555122</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.35328466666667</v>
+        <v>20.46218966666666</v>
       </c>
       <c r="H12">
-        <v>88.059854</v>
+        <v>61.38656899999999</v>
       </c>
       <c r="I12">
-        <v>0.215265654728427</v>
+        <v>0.131568237738417</v>
       </c>
       <c r="J12">
-        <v>0.2174101867487225</v>
+        <v>0.1323335054016559</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N12">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O12">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P12">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q12">
-        <v>376.0103125576164</v>
+        <v>164.1336006987794</v>
       </c>
       <c r="R12">
-        <v>3384.092813018548</v>
+        <v>1477.202406289015</v>
       </c>
       <c r="S12">
-        <v>0.06488458920121694</v>
+        <v>0.0305032777215234</v>
       </c>
       <c r="T12">
-        <v>0.07177157479219817</v>
+        <v>0.03407883499404266</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.35328466666667</v>
+        <v>20.46218966666666</v>
       </c>
       <c r="H13">
-        <v>88.059854</v>
+        <v>61.38656899999999</v>
       </c>
       <c r="I13">
-        <v>0.215265654728427</v>
+        <v>0.131568237738417</v>
       </c>
       <c r="J13">
-        <v>0.2174101867487225</v>
+        <v>0.1323335054016559</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.103086</v>
       </c>
       <c r="O13">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P13">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q13">
-        <v>343.4636253454938</v>
+        <v>239.428667872437</v>
       </c>
       <c r="R13">
-        <v>3091.172628109444</v>
+        <v>2154.858010851934</v>
       </c>
       <c r="S13">
-        <v>0.05926831124528856</v>
+        <v>0.04449642924735792</v>
       </c>
       <c r="T13">
-        <v>0.0655591733833267</v>
+        <v>0.04971224679486912</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.35328466666667</v>
+        <v>20.46218966666666</v>
       </c>
       <c r="H14">
-        <v>88.059854</v>
+        <v>61.38656899999999</v>
       </c>
       <c r="I14">
-        <v>0.215265654728427</v>
+        <v>0.131568237738417</v>
       </c>
       <c r="J14">
-        <v>0.2174101867487225</v>
+        <v>0.1323335054016559</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N14">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O14">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P14">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q14">
-        <v>73.59829296784756</v>
+        <v>50.66348127832133</v>
       </c>
       <c r="R14">
-        <v>662.384636710628</v>
+        <v>455.971331504892</v>
       </c>
       <c r="S14">
-        <v>0.01270017030290323</v>
+        <v>0.009415514149403103</v>
       </c>
       <c r="T14">
-        <v>0.01404819286043007</v>
+        <v>0.01051918931502805</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.35328466666667</v>
+        <v>20.46218966666666</v>
       </c>
       <c r="H15">
-        <v>88.059854</v>
+        <v>61.38656899999999</v>
       </c>
       <c r="I15">
-        <v>0.215265654728427</v>
+        <v>0.131568237738417</v>
       </c>
       <c r="J15">
-        <v>0.2174101867487225</v>
+        <v>0.1323335054016559</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N15">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O15">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P15">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q15">
-        <v>325.4072849533533</v>
+        <v>211.7771765358756</v>
       </c>
       <c r="R15">
-        <v>1952.44370972012</v>
+        <v>1270.663059215254</v>
       </c>
       <c r="S15">
-        <v>0.05615249715803038</v>
+        <v>0.03935755996000605</v>
       </c>
       <c r="T15">
-        <v>0.04140842686130146</v>
+        <v>0.02931400364883369</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.35328466666667</v>
+        <v>20.46218966666666</v>
       </c>
       <c r="H16">
-        <v>88.059854</v>
+        <v>61.38656899999999</v>
       </c>
       <c r="I16">
-        <v>0.215265654728427</v>
+        <v>0.131568237738417</v>
       </c>
       <c r="J16">
-        <v>0.2174101867487225</v>
+        <v>0.1323335054016559</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N16">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O16">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P16">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q16">
-        <v>128.998615945038</v>
+        <v>41.94619287798778</v>
       </c>
       <c r="R16">
-        <v>1160.987543505342</v>
+        <v>377.51573590189</v>
       </c>
       <c r="S16">
-        <v>0.02226008682098792</v>
+        <v>0.007795456660126527</v>
       </c>
       <c r="T16">
-        <v>0.02462281885146612</v>
+        <v>0.008709230648882384</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.035114500000001</v>
+        <v>2.6981485</v>
       </c>
       <c r="H17">
-        <v>8.070229000000001</v>
+        <v>5.396297000000001</v>
       </c>
       <c r="I17">
-        <v>0.02959197154971446</v>
+        <v>0.01734861464410334</v>
       </c>
       <c r="J17">
-        <v>0.0199245162727042</v>
+        <v>0.01163301532943533</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N17">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O17">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P17">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q17">
-        <v>51.68909311446634</v>
+        <v>21.64269004144917</v>
       </c>
       <c r="R17">
-        <v>310.134558686798</v>
+        <v>129.856140248695</v>
       </c>
       <c r="S17">
-        <v>0.008919504228761517</v>
+        <v>0.004022168417463361</v>
       </c>
       <c r="T17">
-        <v>0.00657749267065179</v>
+        <v>0.002995761418786044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.035114500000001</v>
+        <v>2.6981485</v>
       </c>
       <c r="H18">
-        <v>8.070229000000001</v>
+        <v>5.396297000000001</v>
       </c>
       <c r="I18">
-        <v>0.02959197154971446</v>
+        <v>0.01734861464410334</v>
       </c>
       <c r="J18">
-        <v>0.0199245162727042</v>
+        <v>0.01163301532943533</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.103086</v>
       </c>
       <c r="O18">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P18">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q18">
-        <v>47.21499043778234</v>
+        <v>31.57111294542367</v>
       </c>
       <c r="R18">
-        <v>283.289942626694</v>
+        <v>189.426677672542</v>
       </c>
       <c r="S18">
-        <v>0.00814745010012316</v>
+        <v>0.00586730822970974</v>
       </c>
       <c r="T18">
-        <v>0.00600815829485876</v>
+        <v>0.004370044663066474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.035114500000001</v>
+        <v>2.6981485</v>
       </c>
       <c r="H19">
-        <v>8.070229000000001</v>
+        <v>5.396297000000001</v>
       </c>
       <c r="I19">
-        <v>0.02959197154971446</v>
+        <v>0.01734861464410334</v>
       </c>
       <c r="J19">
-        <v>0.0199245162727042</v>
+        <v>0.01163301532943533</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N19">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O19">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P19">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q19">
-        <v>10.11735287897967</v>
+        <v>6.680496967466</v>
       </c>
       <c r="R19">
-        <v>60.70411727387801</v>
+        <v>40.08298180479601</v>
       </c>
       <c r="S19">
-        <v>0.001745857130596</v>
+        <v>0.001241531614787305</v>
       </c>
       <c r="T19">
-        <v>0.001287444031190827</v>
+        <v>0.0009247082980499848</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>4.035114500000001</v>
+        <v>2.6981485</v>
       </c>
       <c r="H20">
-        <v>8.070229000000001</v>
+        <v>5.396297000000001</v>
       </c>
       <c r="I20">
-        <v>0.02959197154971446</v>
+        <v>0.01734861464410334</v>
       </c>
       <c r="J20">
-        <v>0.0199245162727042</v>
+        <v>0.01163301532943533</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N20">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O20">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P20">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q20">
-        <v>44.732835484405</v>
+        <v>27.9249816619255</v>
       </c>
       <c r="R20">
-        <v>178.93134193762</v>
+        <v>111.699926647702</v>
       </c>
       <c r="S20">
-        <v>0.007719127793247666</v>
+        <v>0.005189695878087782</v>
       </c>
       <c r="T20">
-        <v>0.003794867605622581</v>
+        <v>0.002576900330562379</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>4.035114500000001</v>
+        <v>2.6981485</v>
       </c>
       <c r="H21">
-        <v>8.070229000000001</v>
+        <v>5.396297000000001</v>
       </c>
       <c r="I21">
-        <v>0.02959197154971446</v>
+        <v>0.01734861464410334</v>
       </c>
       <c r="J21">
-        <v>0.0199245162727042</v>
+        <v>0.01163301532943533</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N21">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O21">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P21">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q21">
-        <v>17.73308137711951</v>
+        <v>5.531033542261668</v>
       </c>
       <c r="R21">
-        <v>106.398488262717</v>
+        <v>33.18620125357</v>
       </c>
       <c r="S21">
-        <v>0.003060032296986114</v>
+        <v>0.00102791050405515</v>
       </c>
       <c r="T21">
-        <v>0.002256553670380246</v>
+        <v>0.0007656006189704471</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.45663266666667</v>
+        <v>50.68616266666667</v>
       </c>
       <c r="H22">
-        <v>76.36989800000001</v>
+        <v>152.058488</v>
       </c>
       <c r="I22">
-        <v>0.1866891136852577</v>
+        <v>0.3259030049281339</v>
       </c>
       <c r="J22">
-        <v>0.188548958827037</v>
+        <v>0.3277986222542529</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.80982066666667</v>
+        <v>8.021311666666668</v>
       </c>
       <c r="N22">
-        <v>38.42946199999999</v>
+        <v>24.063935</v>
       </c>
       <c r="O22">
-        <v>0.3014163559118312</v>
+        <v>0.2318437811880539</v>
       </c>
       <c r="P22">
-        <v>0.3301205700869483</v>
+        <v>0.2575223477274881</v>
       </c>
       <c r="Q22">
-        <v>326.0948992372084</v>
+        <v>406.5695079366978</v>
       </c>
       <c r="R22">
-        <v>2934.854093134876</v>
+        <v>3659.12557143028</v>
       </c>
       <c r="S22">
-        <v>0.05627115233541994</v>
+        <v>0.07555858496308752</v>
       </c>
       <c r="T22">
-        <v>0.06224388977728201</v>
+        <v>0.08441547078475123</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.45663266666667</v>
+        <v>50.68616266666667</v>
       </c>
       <c r="H23">
-        <v>76.36989800000001</v>
+        <v>152.058488</v>
       </c>
       <c r="I23">
-        <v>0.1866891136852577</v>
+        <v>0.3259030049281339</v>
       </c>
       <c r="J23">
-        <v>0.188548958827037</v>
+        <v>0.3277986222542529</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.103086</v>
       </c>
       <c r="O23">
-        <v>0.2753263697363137</v>
+        <v>0.3382003894878138</v>
       </c>
       <c r="P23">
-        <v>0.3015460055655002</v>
+        <v>0.3756588072233373</v>
       </c>
       <c r="Q23">
-        <v>297.8687885894698</v>
+        <v>593.0802423659965</v>
       </c>
       <c r="R23">
-        <v>2680.819097305228</v>
+        <v>5337.722181293968</v>
       </c>
       <c r="S23">
-        <v>0.05140043594025197</v>
+        <v>0.1102205232019438</v>
       </c>
       <c r="T23">
-        <v>0.05685618538782696</v>
+        <v>0.1231404394454859</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.45663266666667</v>
+        <v>50.68616266666667</v>
       </c>
       <c r="H24">
-        <v>76.36989800000001</v>
+        <v>152.058488</v>
       </c>
       <c r="I24">
-        <v>0.1866891136852577</v>
+        <v>0.3259030049281339</v>
       </c>
       <c r="J24">
-        <v>0.188548958827037</v>
+        <v>0.3277986222542529</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.507327333333333</v>
+        <v>2.475956</v>
       </c>
       <c r="N24">
-        <v>7.521982</v>
+        <v>7.427868</v>
       </c>
       <c r="O24">
-        <v>0.05899766183753465</v>
+        <v>0.07156373233578578</v>
       </c>
       <c r="P24">
-        <v>0.06461607466749768</v>
+        <v>0.07948999222154987</v>
       </c>
       <c r="Q24">
-        <v>63.82811089975956</v>
+        <v>125.4967085715093</v>
       </c>
       <c r="R24">
-        <v>574.452998097836</v>
+        <v>1129.470377143584</v>
       </c>
       <c r="S24">
-        <v>0.0110142211979519</v>
+        <v>0.02332283541210525</v>
       </c>
       <c r="T24">
-        <v>0.01218329360204677</v>
+        <v>0.02605670993322532</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.45663266666667</v>
+        <v>50.68616266666667</v>
       </c>
       <c r="H25">
-        <v>76.36989800000001</v>
+        <v>152.058488</v>
       </c>
       <c r="I25">
-        <v>0.1866891136852577</v>
+        <v>0.3259030049281339</v>
       </c>
       <c r="J25">
-        <v>0.188548958827037</v>
+        <v>0.3277986222542529</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.08589</v>
+        <v>10.349683</v>
       </c>
       <c r="N25">
-        <v>22.17178</v>
+        <v>20.699366</v>
       </c>
       <c r="O25">
-        <v>0.2608520956530235</v>
+        <v>0.2991418038011306</v>
       </c>
       <c r="P25">
-        <v>0.1904622201955989</v>
+        <v>0.2215161123395049</v>
       </c>
       <c r="Q25">
-        <v>282.2094295130733</v>
+        <v>524.5857160864347</v>
       </c>
       <c r="R25">
-        <v>1693.25657707844</v>
+        <v>3147.514296518608</v>
       </c>
       <c r="S25">
-        <v>0.04869824654040501</v>
+        <v>0.09749121275841074</v>
       </c>
       <c r="T25">
-        <v>0.03591145331376603</v>
+        <v>0.07261267643200801</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>25.45663266666667</v>
+        <v>50.68616266666667</v>
       </c>
       <c r="H26">
-        <v>76.36989800000001</v>
+        <v>152.058488</v>
       </c>
       <c r="I26">
-        <v>0.1866891136852577</v>
+        <v>0.3259030049281339</v>
       </c>
       <c r="J26">
-        <v>0.188548958827037</v>
+        <v>0.3277986222542529</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.394691000000001</v>
+        <v>2.049936666666667</v>
       </c>
       <c r="N26">
-        <v>13.184073</v>
+        <v>6.14981</v>
       </c>
       <c r="O26">
-        <v>0.1034075168612968</v>
+        <v>0.05925029318721588</v>
       </c>
       <c r="P26">
-        <v>0.113255129484455</v>
+        <v>0.06581274048811983</v>
       </c>
       <c r="Q26">
-        <v>111.874034470506</v>
+        <v>103.9034233430311</v>
       </c>
       <c r="R26">
-        <v>1006.866310234554</v>
+        <v>935.1308100872801</v>
       </c>
       <c r="S26">
-        <v>0.01930505767122884</v>
+        <v>0.0193098485925866</v>
       </c>
       <c r="T26">
-        <v>0.02135413674611526</v>
+        <v>0.02157332565878237</v>
       </c>
     </row>
   </sheetData>
